--- a/seleniumJavaFramework/Excel/Data.xlsx
+++ b/seleniumJavaFramework/Excel/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AubreyCordero\Desktop\ECLIPSE-Work\seleniumJavaFramework\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AubreyCordero\Git\Armcordero\seleniumJavaFramework\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD199D8-0310-40D4-9CCE-6F93B8C7AC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98648937-84C0-4F86-AA98-9D36C2AEBE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>USERNAME</t>
   </si>
@@ -34,27 +34,6 @@
   </si>
   <si>
     <t>Admin</t>
-  </si>
-  <si>
-    <t>Admin12345</t>
-  </si>
-  <si>
-    <t>Admin1</t>
-  </si>
-  <si>
-    <t>Admin123</t>
-  </si>
-  <si>
-    <t>Admin1234</t>
-  </si>
-  <si>
-    <t>Admin2</t>
-  </si>
-  <si>
-    <t>Admin3</t>
-  </si>
-  <si>
-    <t>Admin12</t>
   </si>
 </sst>
 </file>
@@ -378,7 +357,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A3" sqref="A3:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -400,33 +379,18 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+      <c r="B2" s="1">
+        <v>12345</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
+      <c r="B5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
